--- a/data/team_player/raw/team_stats.xlsx
+++ b/data/team_player/raw/team_stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quentinmahieu/Desktop/School/Monash/Project_Soccer/Teams_Players/Team_player_data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quentinmahieu/Desktop/School/Monash/Project_soccer_2/data/team_player/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B99674D-C4F0-2A42-88BC-282F74F074B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E49C9A1-C737-D24A-8F4F-2B46E7491379}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="2220" windowWidth="28040" windowHeight="15980" xr2:uid="{10FA9D32-456A-664F-9F7E-C741A5CA8775}"/>
+    <workbookView xWindow="32000" yWindow="1680" windowWidth="28040" windowHeight="15980" xr2:uid="{10FA9D32-456A-664F-9F7E-C741A5CA8775}"/>
   </bookViews>
   <sheets>
     <sheet name="team_stats" sheetId="1" r:id="rId1"/>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF537D77-78B9-3549-84AF-32ACDAFE15D2}">
   <dimension ref="A1:M141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="Q141" sqref="Q141"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>15</v>
